--- a/Documenten/Logboek.xlsx
+++ b/Documenten/Logboek.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenzo\Documents\De Nayer\2016-2017\Semester 2\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenzo\Documents\De Nayer\2016-2017\Semester 2\Project 2\SocialBusiness\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -54,6 +54,33 @@
   </si>
   <si>
     <t>kan via php gebeuren</t>
+  </si>
+  <si>
+    <t>afwerken projectvoorstel</t>
+  </si>
+  <si>
+    <t>planning bijgewerkt</t>
+  </si>
+  <si>
+    <t>WBS opgesteld</t>
+  </si>
+  <si>
+    <t>Basis configuratie gedaan op server</t>
+  </si>
+  <si>
+    <t>Full reset, schijven geformateerd en in raid 1+0 geconfigureerd</t>
+  </si>
+  <si>
+    <t>Ruben + Kenzo</t>
+  </si>
+  <si>
+    <t>OS geinstaleerd op server</t>
+  </si>
+  <si>
+    <t>verslag over 1/03/2017 geschreven</t>
+  </si>
+  <si>
+    <t>naam bestand: "Verslag 01032017 instalatie windows.docx"</t>
   </si>
 </sst>
 </file>
@@ -119,8 +146,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:E49" totalsRowShown="0">
-  <autoFilter ref="A1:E49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:E50" totalsRowShown="0">
+  <autoFilter ref="A1:E50"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Datum"/>
     <tableColumn id="2" name="Wat gedaan?"/>
@@ -429,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,23 +520,94 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>42786</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>42791</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="1">
+        <v>42792</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -544,8 +642,8 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -604,9 +702,12 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documenten/Logboek.xlsx
+++ b/Documenten/Logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>naam bestand: "Verslag 01032017 instalatie windows.docx"</t>
+  </si>
+  <si>
+    <t>Zorgen dat de server een internet aansluiting heeft en een VPN installeren</t>
+  </si>
+  <si>
+    <t>Blokschema maken</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,10 +616,32 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>42954</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>42802</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>

--- a/Documenten/Logboek.xlsx
+++ b/Documenten/Logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -47,21 +47,9 @@
     <t>Ruben</t>
   </si>
   <si>
-    <t>lay-out webaplicatie uitgetekend in visio</t>
-  </si>
-  <si>
-    <t>opzoekwerk files tonen van fileserver in de website</t>
-  </si>
-  <si>
     <t>kan via php gebeuren</t>
   </si>
   <si>
-    <t>afwerken projectvoorstel</t>
-  </si>
-  <si>
-    <t>planning bijgewerkt</t>
-  </si>
-  <si>
     <t>WBS opgesteld</t>
   </si>
   <si>
@@ -77,9 +65,6 @@
     <t>OS geinstaleerd op server</t>
   </si>
   <si>
-    <t>verslag over 1/03/2017 geschreven</t>
-  </si>
-  <si>
     <t>naam bestand: "Verslag 01032017 instalatie windows.docx"</t>
   </si>
   <si>
@@ -87,6 +72,63 @@
   </si>
   <si>
     <t>Blokschema maken</t>
+  </si>
+  <si>
+    <t>Dit heeft geinstaleerd terwijl ik er niet was en dit was mislukt</t>
+  </si>
+  <si>
+    <t>Login en User pagina gemaakt</t>
+  </si>
+  <si>
+    <t>Alle pagina's uitgetekend</t>
+  </si>
+  <si>
+    <t>Na het herstarten van de server blef deze constant vast zitten bij het initializeren van de P410i Raid-controller</t>
+  </si>
+  <si>
+    <t>Server proberen te herstellen na een probleem met de raid-controller</t>
+  </si>
+  <si>
+    <t>Proberen om de firmware van de Raid-controller up te daten</t>
+  </si>
+  <si>
+    <t>Om dit te updaten moesten we een licence hebben om de software te downloaden en deze hebben we niet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We hebben andere servers ter beschikking gekregen. </t>
+  </si>
+  <si>
+    <t>Andere Servers opzetten,</t>
+  </si>
+  <si>
+    <t>Windows installeren op de 3 servers,</t>
+  </si>
+  <si>
+    <t>Eerst probeerden we windows Server 2012 op de server zetten maar na veel gesukkel beseften we dat we de key van Windows Server R2 hadden, dan probeerden we deze te installeren maar als deze Windows versie wilde instaleren geefde deze steeds een foutmelding die niet leesbaar was omdat deze zosnel terug herstarte. dit bleef doorgaan.</t>
+  </si>
+  <si>
+    <t>Blokschema tekenen van het netwerk</t>
+  </si>
+  <si>
+    <t>Pagina's in een wireframe gezet</t>
+  </si>
+  <si>
+    <t>Kostenberekening gedaan</t>
+  </si>
+  <si>
+    <t>Verslag over 1/03/2017 geschreven</t>
+  </si>
+  <si>
+    <t>Planning bijgewerkt</t>
+  </si>
+  <si>
+    <t>Afwerken projectvoorstel</t>
+  </si>
+  <si>
+    <t>Opzoekwerk files tonen van fileserver in de website</t>
+  </si>
+  <si>
+    <t>Lay-out webaplicatie uitgetekend in visio</t>
   </si>
 </sst>
 </file>
@@ -129,11 +171,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -152,8 +200,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:E50" totalsRowShown="0">
-  <autoFilter ref="A1:E50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:E52" totalsRowShown="0">
+  <autoFilter ref="A1:E52"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Datum"/>
     <tableColumn id="2" name="Wat gedaan?"/>
@@ -462,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +522,7 @@
     <col min="2" max="2" width="116.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -499,7 +547,7 @@
         <v>42781</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>0.75</v>
@@ -513,7 +561,7 @@
         <v>42781</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.75</v>
@@ -522,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,7 +578,7 @@
         <v>42786</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -544,7 +592,7 @@
         <v>42791</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -558,7 +606,7 @@
         <v>42792</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -572,16 +620,16 @@
         <v>42795</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,13 +637,13 @@
         <v>42795</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,7 +651,7 @@
         <v>42795</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -612,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,13 +668,16 @@
         <v>42954</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,7 +685,7 @@
         <v>42802</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -644,60 +695,171 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>42807</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>42807</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>42808</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>42808</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42808</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42809</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>42810</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>0.75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -733,9 +895,15 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documenten/Logboek.xlsx
+++ b/Documenten/Logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -47,45 +47,27 @@
     <t>Ruben</t>
   </si>
   <si>
-    <t>kan via php gebeuren</t>
-  </si>
-  <si>
     <t>WBS opgesteld</t>
   </si>
   <si>
     <t>Basis configuratie gedaan op server</t>
   </si>
   <si>
-    <t>Full reset, schijven geformateerd en in raid 1+0 geconfigureerd</t>
-  </si>
-  <si>
     <t>Ruben + Kenzo</t>
   </si>
   <si>
-    <t>OS geinstaleerd op server</t>
-  </si>
-  <si>
-    <t>naam bestand: "Verslag 01032017 instalatie windows.docx"</t>
-  </si>
-  <si>
     <t>Zorgen dat de server een internet aansluiting heeft en een VPN installeren</t>
   </si>
   <si>
     <t>Blokschema maken</t>
   </si>
   <si>
-    <t>Dit heeft geinstaleerd terwijl ik er niet was en dit was mislukt</t>
-  </si>
-  <si>
     <t>Login en User pagina gemaakt</t>
   </si>
   <si>
     <t>Alle pagina's uitgetekend</t>
   </si>
   <si>
-    <t>Na het herstarten van de server blef deze constant vast zitten bij het initializeren van de P410i Raid-controller</t>
-  </si>
-  <si>
     <t>Server proberen te herstellen na een probleem met de raid-controller</t>
   </si>
   <si>
@@ -104,9 +86,6 @@
     <t>Windows installeren op de 3 servers,</t>
   </si>
   <si>
-    <t>Eerst probeerden we windows Server 2012 op de server zetten maar na veel gesukkel beseften we dat we de key van Windows Server R2 hadden, dan probeerden we deze te installeren maar als deze Windows versie wilde instaleren geefde deze steeds een foutmelding die niet leesbaar was omdat deze zosnel terug herstarte. dit bleef doorgaan.</t>
-  </si>
-  <si>
     <t>Blokschema tekenen van het netwerk</t>
   </si>
   <si>
@@ -128,7 +107,43 @@
     <t>Opzoekwerk files tonen van fileserver in de website</t>
   </si>
   <si>
-    <t>Lay-out webaplicatie uitgetekend in visio</t>
+    <t>Windows server 2008 r2 instaleren op de servers + updates installeren</t>
+  </si>
+  <si>
+    <t>Lay-out webapplicatie uitgetekend in Visio</t>
+  </si>
+  <si>
+    <t>kan via PHP gebeuren</t>
+  </si>
+  <si>
+    <t>Full reset, schijven geformatteerd en in raid 1+0 geconfigureerd</t>
+  </si>
+  <si>
+    <t>OS geïnstalleerd op server</t>
+  </si>
+  <si>
+    <t>naam bestand: "Verslag 01032017 installatie windows.docx"</t>
+  </si>
+  <si>
+    <t>Dit heeft geïnstalleerd terwijl ik er niet was en dit was mislukt</t>
+  </si>
+  <si>
+    <t>Na het herstarten van de server bleef deze constant vast zitten bij het initialiseren van de P410i Raid-controller</t>
+  </si>
+  <si>
+    <t>Deze versie was wel compatibel met onze servers en installeerde dus wel</t>
+  </si>
+  <si>
+    <t>Updates verder geïnstalleerd op de servers, remote desktop ingesteld, domain controller opgezet</t>
+  </si>
+  <si>
+    <t>Database overgezet naar SQL-queries</t>
+  </si>
+  <si>
+    <t>Database opgesteld, uitgetekend en naar tabellen overgezet</t>
+  </si>
+  <si>
+    <t>Eerst probeerden we Windows Server 2012 op de server zetten maar na veel gesukkel beseften we dat we de key van Windows Server 2012 R2 hadden, dan probeerden we deze te installeren maar als deze Windows versie wilde instaleren gaf deze steeds een foutmelding die niet leesbaar was omdat deze zo snel terug herstarte. dit bleef doorgaan.</t>
   </si>
 </sst>
 </file>
@@ -200,8 +215,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:E52" totalsRowShown="0">
-  <autoFilter ref="A1:E52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:E53" totalsRowShown="0">
+  <autoFilter ref="A1:E53"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Datum"/>
     <tableColumn id="2" name="Wat gedaan?"/>
@@ -510,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="P28" sqref="P28:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +562,7 @@
         <v>42781</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0.75</v>
@@ -561,7 +576,7 @@
         <v>42781</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>0.75</v>
@@ -570,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -578,7 +593,7 @@
         <v>42786</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -592,7 +607,7 @@
         <v>42791</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -606,7 +621,7 @@
         <v>42792</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -620,16 +635,16 @@
         <v>42795</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,13 +652,13 @@
         <v>42795</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,7 +666,7 @@
         <v>42795</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -660,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,7 +683,7 @@
         <v>42954</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -677,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,7 +700,7 @@
         <v>42802</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -699,7 +714,7 @@
         <v>42807</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -713,7 +728,7 @@
         <v>42807</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -727,16 +742,16 @@
         <v>42808</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,16 +759,16 @@
         <v>42808</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -761,24 +776,24 @@
         <v>42808</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42809</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>1.5</v>
@@ -787,79 +802,130 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>42810</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5">
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42810</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42810</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>0.75</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>1.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42939</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P28" t="e">
+        <f>+T28P28:AF28P28:AI28P28:AL28E18P28:Q28P28:AO28P28:AR28E18P28:Q28P28:AU28E18P28:Q28P28:AX28E18P28:Q28P28:BA28E18P28:Q28P28:BD28E18P28P28:Q28</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,9 +967,12 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documenten/Logboek.xlsx
+++ b/Documenten/Logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -144,6 +144,27 @@
   </si>
   <si>
     <t>Eerst probeerden we Windows Server 2012 op de server zetten maar na veel gesukkel beseften we dat we de key van Windows Server 2012 R2 hadden, dan probeerden we deze te installeren maar als deze Windows versie wilde instaleren gaf deze steeds een foutmelding die niet leesbaar was omdat deze zo snel terug herstarte. dit bleef doorgaan.</t>
+  </si>
+  <si>
+    <t>Aan website gewerkt</t>
+  </si>
+  <si>
+    <t>Tussentijdse presentatie gemaakt</t>
+  </si>
+  <si>
+    <t>Samen powerpoint overlopen en verdeeld</t>
+  </si>
+  <si>
+    <t>De Server beneden verlaten vanwege te veel compatibliteits problemen en op de virtuele server van Mvr. Degreef opnieuw begonnen</t>
+  </si>
+  <si>
+    <t>Omdat we al wisten wat we allemaal hoevden te doen en alles van de eerste keer goed ging zaten we naar 2 uur werk op de virtuele servers even ver als op de fysieke servers waar we 4 weken hebben op zitten proberen.</t>
+  </si>
+  <si>
+    <t>Login + logout gedeelte afgewerkt, webpagina gelinkt met database</t>
+  </si>
+  <si>
+    <t>Login en user_page samengehangen</t>
   </si>
 </sst>
 </file>
@@ -528,13 +549,13 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28:Q28"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="100.7109375" bestFit="1" customWidth="1"/>
@@ -894,7 +915,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42939</v>
+        <v>42817</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -906,21 +927,96 @@
         <v>9</v>
       </c>
     </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42820</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42819</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A27" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>2.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="P28" t="e">
         <f>+T28P28:AF28P28:AI28P28:AL28E18P28:Q28P28:AO28P28:AR28E18P28:Q28P28:AU28E18P28:Q28P28:AX28E18P28:Q28P28:BA28E18P28:Q28P28:BD28E18P28P28:Q28</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>1.5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>

--- a/Documenten/Logboek.xlsx
+++ b/Documenten/Logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Login en user_page samengehangen</t>
+  </si>
+  <si>
+    <t>Login en check in worden op 1 gezet in databank en worden juist getoont op de user page</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1022,18 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>2.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>

--- a/Documenten/Logboek.xlsx
+++ b/Documenten/Logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>Datum</t>
   </si>
@@ -168,22 +168,252 @@
   </si>
   <si>
     <t>Login en check in worden op 1 gezet in databank en worden juist getoont op de user page</t>
+  </si>
+  <si>
+    <t>bug fixes gedaan en begin admin page gemaakt</t>
+  </si>
+  <si>
+    <t>verder gewerkt aan admin page</t>
+  </si>
+  <si>
+    <t>info page aangemaakt</t>
+  </si>
+  <si>
+    <t>start date toegevoegd aan database en start date bij info pagina</t>
+  </si>
+  <si>
+    <t>info page afgewerkt</t>
+  </si>
+  <si>
+    <t>testgebruikers toegevoegd</t>
+  </si>
+  <si>
+    <t>script gemaakt voor users af te drukken op scherm</t>
+  </si>
+  <si>
+    <t>databank aangepast en e-r diagramma aangepast</t>
+  </si>
+  <si>
+    <t>Check in werkt</t>
+  </si>
+  <si>
+    <t>Check in en out werkt</t>
+  </si>
+  <si>
+    <t>veranderingen verder doorgevoerd in andere pagina's</t>
+  </si>
+  <si>
+    <t>database aangepast voor check in en out en logout wordt geregistreerd in databank</t>
+  </si>
+  <si>
+    <t>de "in building" query naar functions.php verplaatst</t>
+  </si>
+  <si>
+    <t>kleine bug bij het nakijken in building</t>
+  </si>
+  <si>
+    <t>tests uitgevoerd op databank</t>
+  </si>
+  <si>
+    <t>bug bij de lijst van de users</t>
+  </si>
+  <si>
+    <t>tooltip bijgevoegd overal waar er "national insurance number" staat</t>
+  </si>
+  <si>
+    <t>de figuurtjes voor "ingelogd" en "in building" in de website gezet</t>
+  </si>
+  <si>
+    <t>colleague info page klaar</t>
+  </si>
+  <si>
+    <t>bug op colleague info page gefixt</t>
+  </si>
+  <si>
+    <t>info word automatisch ingevuld op settings page</t>
+  </si>
+  <si>
+    <t>check in out chart begonnen</t>
+  </si>
+  <si>
+    <t>Settings werken</t>
+  </si>
+  <si>
+    <t>begonnen aan user manage voor de admin</t>
+  </si>
+  <si>
+    <t>begonnen aan user add voor de admin</t>
+  </si>
+  <si>
+    <t>user bijvoegen werkt aleen de rechten worden niet geregistreerd</t>
+  </si>
+  <si>
+    <t>bug bij het bijvoegen van een user gefixt</t>
+  </si>
+  <si>
+    <t>bij de userpage word de foto getoont</t>
+  </si>
+  <si>
+    <t>messages komen in de databank vanaf colleague page</t>
+  </si>
+  <si>
+    <t>men kan berichten sturen vanaf messages page</t>
+  </si>
+  <si>
+    <t>message page is in orde</t>
+  </si>
+  <si>
+    <t>nieuwe testdata en de berichten worden weergegeven op een andere pagina</t>
+  </si>
+  <si>
+    <t>message page verder uitgewerkt</t>
+  </si>
+  <si>
+    <t>begonnen aan search functie</t>
+  </si>
+  <si>
+    <t>search werk bij de messages</t>
+  </si>
+  <si>
+    <t>ervoor gezorgd dat men geen berichten kan openen die men niet mag openen</t>
+  </si>
+  <si>
+    <t>opmaak bij user add page een beetje aangepast</t>
+  </si>
+  <si>
+    <t>telefoonnummer werd getoont zonder de 0 vooraan, opgelost</t>
+  </si>
+  <si>
+    <t>user bewerken is in orde</t>
+  </si>
+  <si>
+    <t>men kan de berichten nog niet openen en ook niet zoeken</t>
+  </si>
+  <si>
+    <t>users verwijderen is in orde</t>
+  </si>
+  <si>
+    <t>bug fixes</t>
+  </si>
+  <si>
+    <t>nog een paar bugs gevonden en opgelost</t>
+  </si>
+  <si>
+    <t>check in en out grafiek verder aan gewerkt</t>
+  </si>
+  <si>
+    <t>er komt een popup bij de message als men een bericht krijgt en de ongelezen berichten hebben een kleurtje</t>
+  </si>
+  <si>
+    <t>bij het antwoorden op een bericht word bij topic automatisch "RE:" toegevoegd</t>
+  </si>
+  <si>
+    <t>bug bij het zoeken naar berichten opgelost</t>
+  </si>
+  <si>
+    <t>ckeck_in_out_page_colleague.php en messages_page_colleague.php aangemaakt, alle pagina's zijn gemaakt</t>
+  </si>
+  <si>
+    <t>bugs opgelost</t>
+  </si>
+  <si>
+    <t>mobiele optimalisatie in orde</t>
+  </si>
+  <si>
+    <t>bug waneer men als admin een bericht van iemand anders bekijkt dit op gelezen staat, opgelost</t>
+  </si>
+  <si>
+    <t>men kan files toevoegen aan een bericht</t>
+  </si>
+  <si>
+    <t>men kan nu maar 1 keer per dag in en uitchecken, nodig voor de grafiek</t>
+  </si>
+  <si>
+    <t>bug bij de user, opgelost door de user terug in te loggen waneer men refresht</t>
+  </si>
+  <si>
+    <t>user zijn session word elke 2 seconden opniem ingevuld</t>
+  </si>
+  <si>
+    <t>de auto refresh werkt terug bij de check in</t>
+  </si>
+  <si>
+    <t>opmaak van de admin pages bijgewerkt</t>
+  </si>
+  <si>
+    <t>file icoontje bij messages gezet</t>
+  </si>
+  <si>
+    <t>search functie verbeterd</t>
+  </si>
+  <si>
+    <t>kleine bugfix</t>
+  </si>
+  <si>
+    <t>waneer er geen ongelezen messages zijn word de badge niet getoont</t>
+  </si>
+  <si>
+    <t>nog kleine bugs opgelost</t>
+  </si>
+  <si>
+    <t>bugfixes</t>
+  </si>
+  <si>
+    <t>waneer er bij admin_add een veld niet word ingevuld krijgt men een waarschuwing</t>
+  </si>
+  <si>
+    <t>overlimit button aangemaakt</t>
+  </si>
+  <si>
+    <t>overlimit button bugs poberen oplossen</t>
+  </si>
+  <si>
+    <t>bij user manage page een link gezet naar de user zijn acount</t>
+  </si>
+  <si>
+    <t>overlimit button verder bewerkt</t>
+  </si>
+  <si>
+    <t>op de virtuele server 3 servers aangemaakt voor de failover cluster voor de webserver</t>
+  </si>
+  <si>
+    <t>een domaincontroller en een domain aangemaakt op een nieuwe virtuele server</t>
+  </si>
+  <si>
+    <t>ook een storage server aangemakt voor de fileserver</t>
+  </si>
+  <si>
+    <t>al de servers in het domain gezet</t>
+  </si>
+  <si>
+    <t>op de webservers apache gëinstaleerd en de source map voor de .php files op de fileserver gezet</t>
+  </si>
+  <si>
+    <t>op de failover cluster ook een fileserver gezet die de storage van de storageserver gebruikt</t>
+  </si>
+  <si>
+    <t>geprobeerd op de databank ook op de fileshare te zetten maar dit is niet gelukt</t>
+  </si>
+  <si>
+    <t>een apparte server aangemaakt voor de databank op te hosten</t>
+  </si>
+  <si>
+    <t>op de databank server de firewal instellingen aangepast en een databank op geinstaleerd en de sql file geinporteerd</t>
+  </si>
+  <si>
+    <t>alle files voor de website overgezet op de fileserver zodat de webservers ze kunnen gebruiken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -210,17 +440,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -239,8 +470,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:E53" totalsRowShown="0">
-  <autoFilter ref="A1:E53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:E130" totalsRowShown="0">
+  <autoFilter ref="A1:E130"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Datum"/>
     <tableColumn id="2" name="Wat gedaan?"/>
@@ -549,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C2" sqref="C2:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,20 +1057,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>42810</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -985,7 +1216,7 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="e">
@@ -998,24 +1229,25 @@
         <v>42823</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42824</v>
+        <v>42823</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1023,66 +1255,1144 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>1.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>42825</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>2.5</v>
       </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42831</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42831</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42831</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42831</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42831</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>0.1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>42831</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42832</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>0.75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42832</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42832</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>1.5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42832</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>0.75</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42832</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44">
+        <v>0.75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42832</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>0.2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>42832</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>0.2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>42832</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>42833</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>42833</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>0.75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>42833</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>1.5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>42833</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>42833</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52">
+        <v>0.2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>42833</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>1.2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>42836</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>42839</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>1.5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>42844</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>42844</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>42844</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58">
+        <v>0.75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>42844</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>42844</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>42844</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>42844</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>42844</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63">
+        <v>0.5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>42844</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64">
+        <v>0.75</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>42844</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65">
+        <v>0.75</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>42845</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>0.5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>42845</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67">
+        <v>0.75</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>42845</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>42845</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69">
+        <v>0.5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>42848</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>42848</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71">
+        <v>0.5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>42848</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72">
+        <v>0.5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>42848</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73">
+        <v>0.75</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>42848</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74">
+        <v>1.5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>42848</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75">
+        <v>0.75</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>42848</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>42851</v>
+      </c>
+      <c r="B77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77">
+        <v>1.75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>42851</v>
+      </c>
+      <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>42851</v>
+      </c>
+      <c r="B79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79">
+        <v>1.5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>42851</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80">
+        <v>0.75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>42851</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81">
+        <v>1.5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>42851</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82">
+        <v>1.75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>42851</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83">
+        <v>0.5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>42851</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84">
+        <v>0.5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>42851</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85">
+        <v>0.75</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>42851</v>
+      </c>
+      <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86">
+        <v>0.5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>42851</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87">
+        <v>0.75</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>42852</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88">
+        <v>0.5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>42852</v>
+      </c>
+      <c r="B89" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89">
+        <v>1.5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>42852</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>42852</v>
+      </c>
+      <c r="B91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91">
+        <v>0.5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>42852</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92">
+        <v>0.2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>42857</v>
+      </c>
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93">
+        <v>0.5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>42857</v>
+      </c>
+      <c r="B94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94">
+        <v>0.75</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>42857</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95">
+        <v>0.3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>42857</v>
+      </c>
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96">
+        <v>0.4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>42857</v>
+      </c>
+      <c r="B97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97">
+        <v>0.2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>42857</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98">
+        <v>0.4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>42857</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99">
+        <v>0.3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>42857</v>
+      </c>
+      <c r="B100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100">
+        <v>0.4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>42858</v>
+      </c>
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101">
+        <v>0.3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>42858</v>
+      </c>
+      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102">
+        <v>0.3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>42858</v>
+      </c>
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103">
+        <v>0.5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>42858</v>
+      </c>
+      <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104">
+        <v>0.2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>42861</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105">
+        <v>0.5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>42865</v>
+      </c>
+      <c r="B106" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106">
+        <v>0.5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>42865</v>
+      </c>
+      <c r="B107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>42865</v>
+      </c>
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108">
+        <v>0.5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="C114">
+        <f>SUM(C2:C113)</f>
+        <v>112.55000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
